--- a/Anckett.xlsx
+++ b/Anckett.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Иванов</t>
   </si>
   <si>
-    <t xml:space="preserve">Иван </t>
-  </si>
-  <si>
     <t>Иванович</t>
   </si>
   <si>
-    <t>232fhdGF12324</t>
-  </si>
-  <si>
     <t>boris@karnaval.su</t>
   </si>
   <si>
@@ -46,6 +40,72 @@
   </si>
   <si>
     <t>msboriskv@gmail.com</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>232fhdGF12325</t>
+  </si>
+  <si>
+    <t>6543wqdy213hd4</t>
+  </si>
+  <si>
+    <t>232fhdGF12326</t>
+  </si>
+  <si>
+    <t>6543wqdy213hd5</t>
+  </si>
+  <si>
+    <t>232fhdGF12327</t>
+  </si>
+  <si>
+    <t>6543wqdy213hd6</t>
+  </si>
+  <si>
+    <t>Валеев</t>
+  </si>
+  <si>
+    <t>Смирнов</t>
+  </si>
+  <si>
+    <t>Соболев</t>
+  </si>
+  <si>
+    <t>Матыггулин</t>
+  </si>
+  <si>
+    <t>Гайнуллин</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Айрат</t>
+  </si>
+  <si>
+    <t>Семен</t>
+  </si>
+  <si>
+    <t>Айдар</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Кайратович</t>
+  </si>
+  <si>
+    <t>Айратович</t>
+  </si>
+  <si>
+    <t>Макарович</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Львовоич</t>
   </si>
 </sst>
 </file>
@@ -397,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,39 +477,132 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Anckett.xlsx
+++ b/Anckett.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Иванов</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Львовоич</t>
+  </si>
+  <si>
+    <t>ovzngpu@gmail.com</t>
+  </si>
+  <si>
+    <t>mail@karnaval.su</t>
+  </si>
+  <si>
+    <t>boriskiselev2013@yandex.ru</t>
+  </si>
+  <si>
+    <t>simngpu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -460,7 +472,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,7 +590,9 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -603,6 +617,7 @@
     <hyperlink ref="E5" r:id="rId5"/>
     <hyperlink ref="E6" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Anckett.xlsx
+++ b/Anckett.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Иванов</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>simngpu@gmail.com</t>
+  </si>
+  <si>
+    <t>eq321wqe12we</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,8 +497,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,12 +631,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Anckett.xlsx
+++ b/Anckett.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Иванов</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,47 +571,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -622,8 +591,6 @@
     <hyperlink ref="E4" r:id="rId4"/>
     <hyperlink ref="E5" r:id="rId5"/>
     <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
